--- a/docs/tablas y restricciones.xlsx
+++ b/docs/tablas y restricciones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PANA\Documents\sistrans\iter3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PANA\Documents\sistrans\Nueva carpeta\Nueva carpeta\PuertoAndes\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="210">
   <si>
     <t>ADMINISTRADORES</t>
   </si>
@@ -639,9 +639,6 @@
   </si>
   <si>
     <t>LOGIN</t>
-  </si>
-  <si>
-    <t>USUARIOS_UK1</t>
   </si>
   <si>
     <t>SYS_C0025626</t>
@@ -983,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -999,16 +996,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1022,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1288,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1302,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1358,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1372,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1582,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1596,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1610,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1624,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1694,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1708,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1722,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1736,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1778,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1792,7 +1789,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1862,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1876,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1890,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1904,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1946,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1960,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2240,7 +2237,7 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2254,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2324,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2338,7 +2335,7 @@
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2366,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2380,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2492,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2506,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2646,7 +2643,7 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2660,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2702,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2716,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2772,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2786,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2814,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2828,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2941,20 +2938,6 @@
       </c>
       <c r="D139" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>200</v>
-      </c>
-      <c r="B140" t="s">
-        <v>204</v>
-      </c>
-      <c r="C140" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
